--- a/实验结果/算法性能数据/算法性能数据50000.xlsx
+++ b/实验结果/算法性能数据/算法性能数据50000.xlsx
@@ -104,6 +104,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1250， 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>欧氏距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,10 +117,6 @@
   </si>
   <si>
     <t>NTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1250， 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,8 +209,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="167">
+  <cellStyleXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -396,7 +420,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="167">
+  <cellStyles count="191">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -481,6 +505,18 @@
     <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -564,6 +600,18 @@
     <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1072,7 +1120,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1129,16 +1177,116 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="1">
+        <v>104.22333333333334</v>
+      </c>
+      <c r="C2" s="1">
+        <v>335.54479999999995</v>
+      </c>
+      <c r="D2" s="1">
+        <v>98.699999999999989</v>
+      </c>
+      <c r="E2" s="1">
+        <v>778012</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1158563</v>
+      </c>
+      <c r="G2" s="1">
+        <v>198187</v>
+      </c>
+      <c r="H2" s="1">
+        <v>381160</v>
+      </c>
+      <c r="I2" s="1">
+        <v>872240</v>
+      </c>
+      <c r="J2" s="1">
+        <v>30287</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3018</v>
+      </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="19">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1">
+        <v>104.67</v>
+      </c>
+      <c r="C3" s="1">
+        <v>339.22723999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>99.766666666666666</v>
+      </c>
+      <c r="E3" s="1">
+        <v>775862</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1155038</v>
+      </c>
+      <c r="G3" s="1">
+        <v>199217</v>
+      </c>
+      <c r="H3" s="1">
+        <v>380207</v>
+      </c>
+      <c r="I3" s="1">
+        <v>869964</v>
+      </c>
+      <c r="J3" s="1">
+        <v>30377</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3004</v>
+      </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="19">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="3">
+        <f>AVERAGE(B2:B3)</f>
+        <v>104.44666666666667</v>
+      </c>
+      <c r="C4" s="3">
+        <f>AVERAGE(C2:C3)</f>
+        <v>337.38601999999997</v>
+      </c>
+      <c r="D4" s="3">
+        <f>AVERAGE(D2:D3)</f>
+        <v>99.23333333333332</v>
+      </c>
+      <c r="E4" s="3">
+        <f>AVERAGE(E2:E3)</f>
+        <v>776937</v>
+      </c>
+      <c r="F4" s="3">
+        <f>AVERAGE(F2:F3)</f>
+        <v>1156800.5</v>
+      </c>
+      <c r="G4" s="3">
+        <f>AVERAGE(G2:G3)</f>
+        <v>198702</v>
+      </c>
+      <c r="H4" s="3">
+        <f>AVERAGE(H2:H3)</f>
+        <v>380683.5</v>
+      </c>
+      <c r="I4" s="3">
+        <f>AVERAGE(I2:I3)</f>
+        <v>871102</v>
+      </c>
+      <c r="J4" s="3">
+        <f>AVERAGE(J2:J3)</f>
+        <v>30332</v>
+      </c>
+      <c r="K4" s="3">
+        <f>AVERAGE(K2:K3)</f>
+        <v>3011</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="19">
       <c r="A7" s="2" t="s">
@@ -1158,33 +1306,60 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2">
+        <v>104.92</v>
+      </c>
+      <c r="C8" s="2">
+        <v>335.60219999999998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>98.3</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="19">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="2">
+        <v>104.21</v>
+      </c>
+      <c r="C9" s="2">
+        <v>337.12020000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>99.1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="19">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="2">
+        <v>103.54</v>
+      </c>
+      <c r="C10" s="2">
+        <v>333.91199999999998</v>
+      </c>
+      <c r="D10" s="2">
+        <v>98.7</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="19">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5">
+        <f>AVERAGE(B8:B10)</f>
+        <v>104.22333333333334</v>
+      </c>
+      <c r="C11" s="5">
+        <f>AVERAGE(C8:C10)</f>
+        <v>335.54479999999995</v>
+      </c>
+      <c r="D11" s="5">
+        <f>AVERAGE(D8:D10)</f>
+        <v>98.699999999999989</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="19">
       <c r="A13" s="2" t="s">
@@ -1204,33 +1379,60 @@
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="2">
+        <v>104.36</v>
+      </c>
+      <c r="C14" s="2">
+        <v>339.21230000000003</v>
+      </c>
+      <c r="D14" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="19">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="2">
+        <v>105.09</v>
+      </c>
+      <c r="C15" s="2">
+        <v>341.36829999999998</v>
+      </c>
+      <c r="D15" s="2">
+        <v>99.4</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="19">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="2">
+        <v>104.56</v>
+      </c>
+      <c r="C16" s="2">
+        <v>337.10111999999998</v>
+      </c>
+      <c r="D16" s="2">
+        <v>99.9</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="19">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="5">
+        <f>AVERAGE(B14:B16)</f>
+        <v>104.67</v>
+      </c>
+      <c r="C17" s="5">
+        <f>AVERAGE(C14:C16)</f>
+        <v>339.22723999999999</v>
+      </c>
+      <c r="D17" s="5">
+        <f>AVERAGE(D14:D16)</f>
+        <v>99.766666666666666</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1249,7 +1451,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1306,16 +1508,116 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="1">
+        <v>103.25</v>
+      </c>
+      <c r="C2" s="1">
+        <v>172.21916666666667</v>
+      </c>
+      <c r="D2" s="1">
+        <v>98.133333333333326</v>
+      </c>
+      <c r="E2" s="1">
+        <v>778012</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1158563</v>
+      </c>
+      <c r="G2" s="1">
+        <v>198187</v>
+      </c>
+      <c r="H2" s="1">
+        <v>381160</v>
+      </c>
+      <c r="I2" s="1">
+        <v>872240</v>
+      </c>
+      <c r="J2" s="1">
+        <v>30287</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3018</v>
+      </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="19">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1">
+        <v>104.42333333333335</v>
+      </c>
+      <c r="C3" s="1">
+        <v>174.02866666666668</v>
+      </c>
+      <c r="D3" s="1">
+        <v>99</v>
+      </c>
+      <c r="E3" s="1">
+        <v>775862</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1155038</v>
+      </c>
+      <c r="G3" s="1">
+        <v>199217</v>
+      </c>
+      <c r="H3" s="1">
+        <v>380207</v>
+      </c>
+      <c r="I3" s="1">
+        <v>869964</v>
+      </c>
+      <c r="J3" s="1">
+        <v>30377</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3004</v>
+      </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="19">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="3">
+        <f>AVERAGE(B2:B3)</f>
+        <v>103.83666666666667</v>
+      </c>
+      <c r="C4" s="3">
+        <f>AVERAGE(C2:C3)</f>
+        <v>173.12391666666667</v>
+      </c>
+      <c r="D4" s="3">
+        <f>AVERAGE(D2:D3)</f>
+        <v>98.566666666666663</v>
+      </c>
+      <c r="E4" s="3">
+        <f>AVERAGE(E2:E3)</f>
+        <v>776937</v>
+      </c>
+      <c r="F4" s="3">
+        <f>AVERAGE(F2:F3)</f>
+        <v>1156800.5</v>
+      </c>
+      <c r="G4" s="3">
+        <f>AVERAGE(G2:G3)</f>
+        <v>198702</v>
+      </c>
+      <c r="H4" s="3">
+        <f>AVERAGE(H2:H3)</f>
+        <v>380683.5</v>
+      </c>
+      <c r="I4" s="3">
+        <f>AVERAGE(I2:I3)</f>
+        <v>871102</v>
+      </c>
+      <c r="J4" s="3">
+        <f>AVERAGE(J2:J3)</f>
+        <v>30332</v>
+      </c>
+      <c r="K4" s="3">
+        <f>AVERAGE(K2:K3)</f>
+        <v>3011</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="19">
       <c r="A7" s="2" t="s">
@@ -1335,33 +1637,60 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2">
+        <v>102.68</v>
+      </c>
+      <c r="C8" s="2">
+        <v>172.31720000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>97</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="19">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="2">
+        <v>103.83</v>
+      </c>
+      <c r="C9" s="2">
+        <v>171.21119999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>98.4</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="19">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="2">
+        <v>103.24</v>
+      </c>
+      <c r="C10" s="2">
+        <v>173.12909999999999</v>
+      </c>
+      <c r="D10" s="2">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="19">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5">
+        <f>AVERAGE(B8:B10)</f>
+        <v>103.25</v>
+      </c>
+      <c r="C11" s="5">
+        <f>AVERAGE(C8:C10)</f>
+        <v>172.21916666666667</v>
+      </c>
+      <c r="D11" s="5">
+        <f>AVERAGE(D8:D10)</f>
+        <v>98.133333333333326</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="19">
       <c r="A13" s="2" t="s">
@@ -1381,33 +1710,60 @@
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="2">
+        <v>104.43</v>
+      </c>
+      <c r="C14" s="2">
+        <v>176.62020000000001</v>
+      </c>
+      <c r="D14" s="2">
+        <v>98.4</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="19">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="2">
+        <v>104.29</v>
+      </c>
+      <c r="C15" s="2">
+        <v>172.18389999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>99.2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="19">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="2">
+        <v>104.55</v>
+      </c>
+      <c r="C16" s="2">
+        <v>173.28190000000001</v>
+      </c>
+      <c r="D16" s="2">
+        <v>99.4</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="19">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="5">
+        <f>AVERAGE(B14:B16)</f>
+        <v>104.42333333333335</v>
+      </c>
+      <c r="C17" s="5">
+        <f>AVERAGE(C14:C16)</f>
+        <v>174.02866666666668</v>
+      </c>
+      <c r="D17" s="5">
+        <f>AVERAGE(D14:D16)</f>
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1426,7 +1782,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1483,16 +1839,116 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="1">
+        <v>104.08</v>
+      </c>
+      <c r="C2" s="1">
+        <v>169.34726666666668</v>
+      </c>
+      <c r="D2" s="1">
+        <v>99.133333333333326</v>
+      </c>
+      <c r="E2" s="1">
+        <v>778012</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1158563</v>
+      </c>
+      <c r="G2" s="1">
+        <v>198187</v>
+      </c>
+      <c r="H2" s="1">
+        <v>381160</v>
+      </c>
+      <c r="I2" s="1">
+        <v>872240</v>
+      </c>
+      <c r="J2" s="1">
+        <v>30287</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3018</v>
+      </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="19">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1">
+        <v>104.22000000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>170.33150000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>99.09999999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>775862</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1155038</v>
+      </c>
+      <c r="G3" s="1">
+        <v>199217</v>
+      </c>
+      <c r="H3" s="1">
+        <v>380207</v>
+      </c>
+      <c r="I3" s="1">
+        <v>869964</v>
+      </c>
+      <c r="J3" s="1">
+        <v>30377</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3004</v>
+      </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="19">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="3">
+        <f>AVERAGE(B2:B3)</f>
+        <v>104.15</v>
+      </c>
+      <c r="C4" s="3">
+        <f>AVERAGE(C2:C3)</f>
+        <v>169.83938333333333</v>
+      </c>
+      <c r="D4" s="3">
+        <f>AVERAGE(D2:D3)</f>
+        <v>99.116666666666646</v>
+      </c>
+      <c r="E4" s="3">
+        <f>AVERAGE(E2:E3)</f>
+        <v>776937</v>
+      </c>
+      <c r="F4" s="3">
+        <f>AVERAGE(F2:F3)</f>
+        <v>1156800.5</v>
+      </c>
+      <c r="G4" s="3">
+        <f>AVERAGE(G2:G3)</f>
+        <v>198702</v>
+      </c>
+      <c r="H4" s="3">
+        <f>AVERAGE(H2:H3)</f>
+        <v>380683.5</v>
+      </c>
+      <c r="I4" s="3">
+        <f>AVERAGE(I2:I3)</f>
+        <v>871102</v>
+      </c>
+      <c r="J4" s="3">
+        <f>AVERAGE(J2:J3)</f>
+        <v>30332</v>
+      </c>
+      <c r="K4" s="3">
+        <f>AVERAGE(K2:K3)</f>
+        <v>3011</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="19">
       <c r="A7" s="2" t="s">
@@ -1512,33 +1968,60 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2">
+        <v>104.21</v>
+      </c>
+      <c r="C8" s="2">
+        <v>171.65969999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>99.4</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="19">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="2">
+        <v>103.91</v>
+      </c>
+      <c r="C9" s="2">
+        <v>167.761</v>
+      </c>
+      <c r="D9" s="2">
+        <v>98.8</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="19">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="2">
+        <v>104.12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>168.62110000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>99.2</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="19">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5">
+        <f>AVERAGE(B8:B10)</f>
+        <v>104.08</v>
+      </c>
+      <c r="C11" s="5">
+        <f>AVERAGE(C8:C10)</f>
+        <v>169.34726666666668</v>
+      </c>
+      <c r="D11" s="5">
+        <f>AVERAGE(D8:D10)</f>
+        <v>99.133333333333326</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="19">
       <c r="A13" s="2" t="s">
@@ -1558,37 +2041,64 @@
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="2">
+        <v>104.11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>164.81139999999999</v>
+      </c>
+      <c r="D14" s="2">
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="19">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="2">
+        <v>104.26</v>
+      </c>
+      <c r="C15" s="2">
+        <v>173.99029999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>99.2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="19">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="2">
+        <v>104.29</v>
+      </c>
+      <c r="C16" s="2">
+        <v>172.19280000000001</v>
+      </c>
+      <c r="D16" s="2">
+        <v>99.1</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="19">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="5">
+        <f>AVERAGE(B14:B16)</f>
+        <v>104.22000000000001</v>
+      </c>
+      <c r="C17" s="5">
+        <f>AVERAGE(C14:C16)</f>
+        <v>170.33150000000001</v>
+      </c>
+      <c r="D17" s="5">
+        <f>AVERAGE(D14:D16)</f>
+        <v>99.09999999999998</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1650,37 +2160,37 @@
     </row>
     <row r="2" spans="1:28" s="3" customFormat="1" ht="19">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
-        <v>7.0216666666666665</v>
+        <v>104.44666666666667</v>
       </c>
       <c r="C2" s="1">
-        <v>5.9487311666666667</v>
+        <v>337.38601999999997</v>
       </c>
       <c r="D2" s="1">
-        <v>98.033333333333331</v>
+        <v>99.23333333333332</v>
       </c>
       <c r="E2" s="1">
-        <v>30787</v>
+        <v>776937</v>
       </c>
       <c r="F2" s="1">
-        <v>45857</v>
+        <v>1156800.5</v>
       </c>
       <c r="G2" s="1">
-        <v>7820</v>
+        <v>198702</v>
       </c>
       <c r="H2" s="1">
-        <v>15107.5</v>
+        <v>380683.5</v>
       </c>
       <c r="I2" s="1">
-        <v>34671</v>
+        <v>871102</v>
       </c>
       <c r="J2" s="1">
-        <v>6061.5</v>
+        <v>30332</v>
       </c>
       <c r="K2" s="1">
-        <v>600.5</v>
+        <v>3011</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1702,72 +2212,72 @@
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="19">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
-        <v>6.9016666666666673</v>
+        <v>103.83666666666667</v>
       </c>
       <c r="C3" s="1">
-        <v>2.4652370000000001</v>
+        <v>173.12391666666667</v>
       </c>
       <c r="D3" s="1">
-        <v>96.933333333333337</v>
+        <v>98.566666666666663</v>
       </c>
       <c r="E3" s="1">
-        <v>30787</v>
+        <v>776937</v>
       </c>
       <c r="F3" s="1">
-        <v>45857</v>
+        <v>1156800.5</v>
       </c>
       <c r="G3" s="1">
-        <v>7820</v>
+        <v>198702</v>
       </c>
       <c r="H3" s="1">
-        <v>15107.5</v>
+        <v>380683.5</v>
       </c>
       <c r="I3" s="1">
-        <v>34671</v>
+        <v>871102</v>
       </c>
       <c r="J3" s="1">
-        <v>6061.5</v>
+        <v>30332</v>
       </c>
       <c r="K3" s="1">
-        <v>600.5</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="19">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
-        <v>6.7133333333333329</v>
+        <v>104.15</v>
       </c>
       <c r="C4" s="1">
-        <v>2.4960158333333333</v>
+        <v>169.83938333333333</v>
       </c>
       <c r="D4" s="1">
-        <v>96.916666666666671</v>
+        <v>99.116666666666646</v>
       </c>
       <c r="E4" s="1">
-        <v>30787</v>
+        <v>776937</v>
       </c>
       <c r="F4" s="1">
-        <v>45857</v>
+        <v>1156800.5</v>
       </c>
       <c r="G4" s="1">
-        <v>7820</v>
+        <v>198702</v>
       </c>
       <c r="H4" s="1">
-        <v>15107.5</v>
+        <v>380683.5</v>
       </c>
       <c r="I4" s="1">
-        <v>34671</v>
+        <v>871102</v>
       </c>
       <c r="J4" s="1">
-        <v>6061.5</v>
+        <v>30332</v>
       </c>
       <c r="K4" s="1">
-        <v>600.5</v>
+        <v>3011</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
